--- a/classfiers/mega/welm/smote/WELM_rbf_smote_results.xlsx
+++ b/classfiers/mega/welm/smote/WELM_rbf_smote_results.xlsx
@@ -465,7 +465,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5108108108108108</v>
+        <v>0.5355029585798816</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -482,7 +482,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.4891891891891892</v>
+        <v>0.4881656804733728</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -499,7 +499,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5216216216216216</v>
+        <v>0.5</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -516,7 +516,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5189189189189189</v>
+        <v>0.5266272189349113</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -533,7 +533,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.4594594594594595</v>
+        <v>0.4497041420118343</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
